--- a/config_3.23/shoping_config.xlsx
+++ b/config_3.23/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8583,9 +8583,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>元宵福袋</t>
-  </si>
-  <si>
     <t>5,100,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8868,6 +8865,9 @@
   <si>
     <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运福袋</t>
   </si>
 </sst>
 </file>
@@ -9320,8 +9320,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9841,7 +9841,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1272</v>
@@ -15218,10 +15218,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P566" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W530" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R589" sqref="R589"/>
+      <selection pane="bottomRight" activeCell="AA545" sqref="AA545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -42049,7 +42049,7 @@
         <v>1488</v>
       </c>
       <c r="W422" s="66" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="X422" s="66">
         <v>99999999</v>
@@ -49895,458 +49895,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A542" s="22">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="22">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>0</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="22">
+        <v>1</v>
+      </c>
+      <c r="G542" s="22" t="s">
         <v>1362</v>
       </c>
-      <c r="I542" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J542" s="5" t="s">
+      <c r="I542" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J542" s="22" t="s">
         <v>1477</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="22">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="22">
+        <v>0</v>
+      </c>
+      <c r="N542" s="22">
+        <v>0</v>
+      </c>
+      <c r="O542" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="22">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="22" t="s">
         <v>1706</v>
       </c>
-      <c r="R542" s="70" t="s">
+      <c r="R542" s="71" t="s">
         <v>1387</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A543" s="5">
+      <c r="Y542" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z542" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A543" s="22">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="22">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>0</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="22">
+        <v>1</v>
+      </c>
+      <c r="G543" s="22" t="s">
         <v>1465</v>
       </c>
-      <c r="I543" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J543" s="5" t="s">
+      <c r="I543" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J543" s="22" t="s">
         <v>1476</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="22">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="22">
+        <v>0</v>
+      </c>
+      <c r="N543" s="22">
+        <v>0</v>
+      </c>
+      <c r="O543" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="22">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="22" t="s">
         <v>1706</v>
       </c>
-      <c r="R543" s="70" t="s">
+      <c r="R543" s="71" t="s">
         <v>1386</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A544" s="5">
+      <c r="Y543" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z543" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A544" s="22">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="22">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>0</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="22">
+        <v>1</v>
+      </c>
+      <c r="G544" s="22" t="s">
         <v>1367</v>
       </c>
-      <c r="I544" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J544" s="5" t="s">
+      <c r="I544" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J544" s="22" t="s">
         <v>1475</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="22">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="22">
+        <v>0</v>
+      </c>
+      <c r="N544" s="22">
+        <v>0</v>
+      </c>
+      <c r="O544" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="22">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="22" t="s">
         <v>1499</v>
       </c>
-      <c r="R544" s="70" t="s">
+      <c r="R544" s="71" t="s">
         <v>1391</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A545" s="5">
+      <c r="Y544" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z544" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A545" s="22">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="22">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>0</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="22">
+        <v>1</v>
+      </c>
+      <c r="G545" s="22" t="s">
         <v>1370</v>
       </c>
-      <c r="I545" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J545" s="5" t="s">
+      <c r="I545" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J545" s="22" t="s">
         <v>1474</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="22">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="22">
+        <v>0</v>
+      </c>
+      <c r="N545" s="22">
+        <v>0</v>
+      </c>
+      <c r="O545" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="22">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="22" t="s">
         <v>1499</v>
       </c>
-      <c r="R545" s="70" t="s">
+      <c r="R545" s="71" t="s">
         <v>1384</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A546" s="5">
+      <c r="Y545" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z545" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A546" s="22">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="22">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>0</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="22">
+        <v>1</v>
+      </c>
+      <c r="G546" s="22" t="s">
         <v>1372</v>
       </c>
-      <c r="I546" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J546" s="5" t="s">
+      <c r="I546" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J546" s="22" t="s">
         <v>1473</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="22">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="22">
+        <v>0</v>
+      </c>
+      <c r="N546" s="22">
+        <v>0</v>
+      </c>
+      <c r="O546" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="22">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="22" t="s">
         <v>1499</v>
       </c>
-      <c r="R546" s="70" t="s">
+      <c r="R546" s="71" t="s">
         <v>1390</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A547" s="5">
+      <c r="Y546" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z546" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A547" s="22">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="22">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>0</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="22">
+        <v>1</v>
+      </c>
+      <c r="G547" s="22" t="s">
         <v>1373</v>
       </c>
-      <c r="I547" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J547" s="5" t="s">
+      <c r="I547" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J547" s="22" t="s">
         <v>1472</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="22">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="22">
+        <v>0</v>
+      </c>
+      <c r="N547" s="22">
+        <v>0</v>
+      </c>
+      <c r="O547" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="22">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="22" t="s">
         <v>1704</v>
       </c>
-      <c r="R547" s="70" t="s">
+      <c r="R547" s="71" t="s">
         <v>1385</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25">
-      <c r="A548" s="5">
+      <c r="Y547" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z547" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="22" customFormat="1" ht="14.25">
+      <c r="A548" s="22">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="22">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>0</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="22">
+        <v>1</v>
+      </c>
+      <c r="G548" s="22" t="s">
         <v>1375</v>
       </c>
-      <c r="I548" s="5" t="s">
-        <v>2006</v>
-      </c>
-      <c r="J548" s="5" t="s">
+      <c r="I548" s="22" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J548" s="22" t="s">
         <v>1471</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="22">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="22">
+        <v>0</v>
+      </c>
+      <c r="N548" s="22">
+        <v>0</v>
+      </c>
+      <c r="O548" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="22">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="22" t="s">
         <v>1704</v>
       </c>
-      <c r="R548" s="70" t="s">
+      <c r="R548" s="71" t="s">
         <v>1389</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="82">
+        <v>1616457600</v>
+      </c>
+      <c r="Z548" s="82">
+        <v>1617033599</v>
+      </c>
+      <c r="AH548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="22">
         <v>1</v>
       </c>
     </row>
@@ -50391,7 +50391,7 @@
         <v>1983</v>
       </c>
       <c r="W549" s="5" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="X549" s="5">
         <v>9999999</v>
@@ -50459,7 +50459,7 @@
         <v>1986</v>
       </c>
       <c r="W550" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="X550" s="5">
         <v>9999999</v>
@@ -50527,7 +50527,7 @@
         <v>1985</v>
       </c>
       <c r="W551" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="X551" s="5">
         <v>9999999</v>
@@ -50595,7 +50595,7 @@
         <v>1984</v>
       </c>
       <c r="W552" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="X552" s="5">
         <v>9999999</v>
@@ -50663,7 +50663,7 @@
         <v>1995</v>
       </c>
       <c r="W553" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X553" s="5">
         <v>9999999</v>
@@ -50731,7 +50731,7 @@
         <v>1996</v>
       </c>
       <c r="W554" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X554" s="5">
         <v>9999999</v>
@@ -50799,7 +50799,7 @@
         <v>1997</v>
       </c>
       <c r="W555" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X555" s="5">
         <v>9999999</v>
@@ -50867,7 +50867,7 @@
         <v>1998</v>
       </c>
       <c r="W556" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="X556" s="5">
         <v>9999999</v>
@@ -50911,7 +50911,7 @@
         <v>1999</v>
       </c>
       <c r="J557" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L557" s="5">
         <v>-25</v>
@@ -51109,7 +51109,7 @@
         <v>1999</v>
       </c>
       <c r="J560" s="5" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="L560" s="5">
         <f>J55-25</f>
@@ -51131,7 +51131,7 @@
         <v>87</v>
       </c>
       <c r="R560" s="70" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="W560" s="5" t="s">
         <v>546</v>
@@ -51242,7 +51242,7 @@
         <v>1999</v>
       </c>
       <c r="J562" s="5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="L562" s="5">
         <v>-25</v>
@@ -51263,7 +51263,7 @@
         <v>87</v>
       </c>
       <c r="R562" s="70" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W562" s="5" t="s">
         <v>546</v>
@@ -51308,7 +51308,7 @@
         <v>1999</v>
       </c>
       <c r="J563" s="5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="L563" s="5">
         <v>-25</v>
@@ -51329,7 +51329,7 @@
         <v>87</v>
       </c>
       <c r="R563" s="70" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="W563" s="5" t="s">
         <v>546</v>
@@ -51440,7 +51440,7 @@
         <v>1999</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -51461,7 +51461,7 @@
         <v>87</v>
       </c>
       <c r="R565" s="70" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W565" s="5" t="s">
         <v>546</v>
@@ -51503,7 +51503,7 @@
         <v>131</v>
       </c>
       <c r="I566" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J566" s="5" t="s">
         <v>1886</v>
@@ -51524,7 +51524,7 @@
         <v>49800</v>
       </c>
       <c r="Q566" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R566" s="70" t="s">
         <v>1874</v>
@@ -51571,7 +51571,7 @@
         <v>131</v>
       </c>
       <c r="I567" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J567" s="5" t="s">
         <v>1888</v>
@@ -51592,7 +51592,7 @@
         <v>19800</v>
       </c>
       <c r="Q567" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="R567" s="70" t="s">
         <v>1875</v>
@@ -51639,7 +51639,7 @@
         <v>131</v>
       </c>
       <c r="I568" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J568" s="5" t="s">
         <v>1869</v>
@@ -51660,7 +51660,7 @@
         <v>9800</v>
       </c>
       <c r="Q568" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="R568" s="70" t="s">
         <v>1876</v>
@@ -51707,7 +51707,7 @@
         <v>131</v>
       </c>
       <c r="I569" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J569" s="5" t="s">
         <v>1868</v>
@@ -51728,7 +51728,7 @@
         <v>4800</v>
       </c>
       <c r="Q569" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="R569" s="70" t="s">
         <v>1877</v>
@@ -51775,7 +51775,7 @@
         <v>131</v>
       </c>
       <c r="I570" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J570" s="5" t="s">
         <v>1892</v>
@@ -51796,7 +51796,7 @@
         <v>49800</v>
       </c>
       <c r="Q570" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R570" s="70" t="s">
         <v>1895</v>
@@ -51843,7 +51843,7 @@
         <v>131</v>
       </c>
       <c r="I571" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J571" s="5" t="s">
         <v>1896</v>
@@ -51864,7 +51864,7 @@
         <v>19800</v>
       </c>
       <c r="Q571" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R571" s="70" t="s">
         <v>1897</v>
@@ -51911,7 +51911,7 @@
         <v>131</v>
       </c>
       <c r="I572" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J572" s="5" t="s">
         <v>1898</v>
@@ -51932,7 +51932,7 @@
         <v>9800</v>
       </c>
       <c r="Q572" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R572" s="70" t="s">
         <v>1881</v>
@@ -51979,7 +51979,7 @@
         <v>131</v>
       </c>
       <c r="I573" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J573" s="5" t="s">
         <v>1899</v>
@@ -52000,7 +52000,7 @@
         <v>4800</v>
       </c>
       <c r="Q573" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R573" s="70" t="s">
         <v>1901</v>
@@ -52037,59 +52037,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="22">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="22"/>
-      <c r="D574" s="22"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22">
-        <v>1</v>
-      </c>
-      <c r="G574" s="22" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="L574" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P574" s="5">
+        <v>4500</v>
+      </c>
+      <c r="Q574" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="H574" s="22"/>
-      <c r="I574" s="22" t="s">
-        <v>2036</v>
-      </c>
-      <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
-      <c r="L574" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M574" s="22">
-        <v>0</v>
-      </c>
-      <c r="N574" s="22">
-        <v>0</v>
-      </c>
-      <c r="O574" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P574" s="22">
-        <v>4500</v>
-      </c>
-      <c r="Q574" s="22" t="s">
-        <v>2026</v>
-      </c>
-      <c r="R574" s="82" t="s">
-        <v>2042</v>
-      </c>
-      <c r="S574" s="22"/>
-      <c r="T574" s="22"/>
-      <c r="U574" s="22"/>
-      <c r="V574" s="22"/>
-      <c r="W574" s="22" t="s">
+      <c r="R574" s="79" t="s">
+        <v>2041</v>
+      </c>
+      <c r="W574" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="X574" s="22">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="22">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="22">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -52109,59 +52099,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="22">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="22"/>
-      <c r="D575" s="22"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22">
-        <v>1</v>
-      </c>
-      <c r="G575" s="22" t="s">
-        <v>2027</v>
-      </c>
-      <c r="H575" s="22"/>
-      <c r="I575" s="22" t="s">
-        <v>2037</v>
-      </c>
-      <c r="J575" s="22"/>
-      <c r="K575" s="22"/>
-      <c r="L575" s="22">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I575" s="5" t="s">
+        <v>2036</v>
+      </c>
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="22">
-        <v>0</v>
-      </c>
-      <c r="N575" s="22">
-        <v>0</v>
-      </c>
-      <c r="O575" s="22" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="P575" s="22">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="22" t="s">
-        <v>2066</v>
-      </c>
-      <c r="R575" s="82" t="s">
-        <v>2043</v>
-      </c>
-      <c r="S575" s="22"/>
-      <c r="T575" s="22"/>
-      <c r="U575" s="22"/>
-      <c r="V575" s="22"/>
-      <c r="W575" s="22" t="s">
+      <c r="Q575" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="R575" s="79" t="s">
+        <v>2042</v>
+      </c>
+      <c r="W575" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="X575" s="22">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="22">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="22">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -52181,59 +52161,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="22">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="22"/>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22">
-        <v>1</v>
-      </c>
-      <c r="G576" s="22" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="L576" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P576" s="5">
+        <v>17800</v>
+      </c>
+      <c r="Q576" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="H576" s="22"/>
-      <c r="I576" s="22" t="s">
-        <v>2038</v>
-      </c>
-      <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
-      <c r="L576" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M576" s="22">
-        <v>0</v>
-      </c>
-      <c r="N576" s="22">
-        <v>0</v>
-      </c>
-      <c r="O576" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P576" s="22">
-        <v>17800</v>
-      </c>
-      <c r="Q576" s="22" t="s">
-        <v>2029</v>
-      </c>
-      <c r="R576" s="82" t="s">
-        <v>2044</v>
-      </c>
-      <c r="S576" s="22"/>
-      <c r="T576" s="22"/>
-      <c r="U576" s="22"/>
-      <c r="V576" s="22"/>
-      <c r="W576" s="22" t="s">
+      <c r="R576" s="79" t="s">
+        <v>2043</v>
+      </c>
+      <c r="W576" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="X576" s="22">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="22">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="22">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -52253,59 +52223,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="22">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="22"/>
-      <c r="D577" s="22"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22">
-        <v>1</v>
-      </c>
-      <c r="G577" s="22" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I577" s="5" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L577" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P577" s="5">
+        <v>44800</v>
+      </c>
+      <c r="Q577" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="H577" s="22"/>
-      <c r="I577" s="22" t="s">
-        <v>2039</v>
-      </c>
-      <c r="J577" s="22"/>
-      <c r="K577" s="22"/>
-      <c r="L577" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M577" s="22">
-        <v>0</v>
-      </c>
-      <c r="N577" s="22">
-        <v>0</v>
-      </c>
-      <c r="O577" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P577" s="22">
-        <v>44800</v>
-      </c>
-      <c r="Q577" s="22" t="s">
-        <v>2031</v>
-      </c>
-      <c r="R577" s="82" t="s">
-        <v>2045</v>
-      </c>
-      <c r="S577" s="22"/>
-      <c r="T577" s="22"/>
-      <c r="U577" s="22"/>
-      <c r="V577" s="22"/>
-      <c r="W577" s="22" t="s">
+      <c r="R577" s="79" t="s">
+        <v>2044</v>
+      </c>
+      <c r="W577" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="X577" s="22">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="22">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="22">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -52325,59 +52285,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="22">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22">
-        <v>1</v>
-      </c>
-      <c r="G578" s="22" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="L578" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P578" s="5">
+        <v>89800</v>
+      </c>
+      <c r="Q578" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22" t="s">
-        <v>2040</v>
-      </c>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M578" s="22">
-        <v>0</v>
-      </c>
-      <c r="N578" s="22">
-        <v>0</v>
-      </c>
-      <c r="O578" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P578" s="22">
-        <v>89800</v>
-      </c>
-      <c r="Q578" s="22" t="s">
-        <v>2033</v>
-      </c>
-      <c r="R578" s="82" t="s">
-        <v>2046</v>
-      </c>
-      <c r="S578" s="22"/>
-      <c r="T578" s="22"/>
-      <c r="U578" s="22"/>
-      <c r="V578" s="22"/>
-      <c r="W578" s="22" t="s">
+      <c r="R578" s="79" t="s">
+        <v>2045</v>
+      </c>
+      <c r="W578" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="X578" s="22">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="22">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="22">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -52397,59 +52347,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="22">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="22"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22">
-        <v>1</v>
-      </c>
-      <c r="G579" s="22" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I579" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L579" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P579" s="5">
+        <v>229800</v>
+      </c>
+      <c r="Q579" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="H579" s="22"/>
-      <c r="I579" s="22" t="s">
-        <v>2041</v>
-      </c>
-      <c r="J579" s="22"/>
-      <c r="K579" s="22"/>
-      <c r="L579" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M579" s="22">
-        <v>0</v>
-      </c>
-      <c r="N579" s="22">
-        <v>0</v>
-      </c>
-      <c r="O579" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="P579" s="22">
-        <v>229800</v>
-      </c>
-      <c r="Q579" s="22" t="s">
-        <v>2035</v>
-      </c>
-      <c r="R579" s="82" t="s">
-        <v>2047</v>
-      </c>
-      <c r="S579" s="22"/>
-      <c r="T579" s="22"/>
-      <c r="U579" s="22"/>
-      <c r="V579" s="22"/>
-      <c r="W579" s="22" t="s">
+      <c r="R579" s="79" t="s">
+        <v>2046</v>
+      </c>
+      <c r="W579" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="X579" s="22">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="22">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="22">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -52476,13 +52416,13 @@
         <v>1</v>
       </c>
       <c r="G580" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I580" s="6" t="s">
         <v>2052</v>
       </c>
-      <c r="I580" s="6" t="s">
-        <v>2053</v>
-      </c>
       <c r="J580" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
@@ -52500,13 +52440,13 @@
         <v>1</v>
       </c>
       <c r="Q580" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="R580" s="81" t="s">
         <v>2054</v>
       </c>
-      <c r="R580" s="81" t="s">
+      <c r="W580" s="6" t="s">
         <v>2055</v>
-      </c>
-      <c r="W580" s="6" t="s">
-        <v>2056</v>
       </c>
       <c r="X580" s="6">
         <v>99999999</v>
@@ -52524,393 +52464,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:39" s="22" customFormat="1">
-      <c r="A581" s="22">
+    <row r="581" spans="1:39" s="5" customFormat="1">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="22">
+      <c r="B581" s="5">
         <v>10497</v>
       </c>
-      <c r="F581" s="22">
-        <v>1</v>
-      </c>
-      <c r="G581" s="22" t="s">
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I581" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J581" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="L581" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="5">
+        <v>0</v>
+      </c>
+      <c r="N581" s="5">
+        <v>0</v>
+      </c>
+      <c r="O581" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="P581" s="5">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R581" s="70" t="s">
+        <v>2076</v>
+      </c>
+      <c r="W581" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X581" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="5">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="5">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="5" customFormat="1">
+      <c r="A582" s="5">
+        <v>581</v>
+      </c>
+      <c r="B582" s="5">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="5">
+        <v>0</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J582" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="I581" s="22" t="s">
-        <v>2069</v>
-      </c>
-      <c r="J581" s="22" t="s">
+      <c r="L582" s="5">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="5">
+        <v>0</v>
+      </c>
+      <c r="N582" s="5">
+        <v>0</v>
+      </c>
+      <c r="O582" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="P582" s="5">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="L581" s="22">
+      <c r="R582" s="70" t="s">
+        <v>2077</v>
+      </c>
+      <c r="W582" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X582" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="5">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="5">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="5" customFormat="1">
+      <c r="A583" s="5">
+        <v>582</v>
+      </c>
+      <c r="B583" s="5">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="5">
+        <v>0</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I583" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J583" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="L583" s="5">
         <v>-31</v>
       </c>
-      <c r="M581" s="22">
-        <v>0</v>
-      </c>
-      <c r="N581" s="22">
-        <v>0</v>
-      </c>
-      <c r="O581" s="22" t="s">
+      <c r="M583" s="5">
+        <v>0</v>
+      </c>
+      <c r="N583" s="5">
+        <v>0</v>
+      </c>
+      <c r="O583" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P581" s="22">
-        <v>49800</v>
-      </c>
-      <c r="Q581" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R581" s="71" t="s">
-        <v>2077</v>
-      </c>
-      <c r="W581" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X581" s="22">
+      <c r="P583" s="5">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R583" s="70" t="s">
+        <v>2078</v>
+      </c>
+      <c r="W583" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X583" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y581" s="22">
+      <c r="Y583" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z581" s="22">
+      <c r="Z583" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM581" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:39" s="22" customFormat="1">
-      <c r="A582" s="22">
-        <v>581</v>
-      </c>
-      <c r="B582" s="22">
-        <v>10498</v>
-      </c>
-      <c r="F582" s="22">
-        <v>1</v>
-      </c>
-      <c r="G582" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I582" s="22" t="s">
-        <v>2070</v>
-      </c>
-      <c r="J582" s="22" t="s">
-        <v>2061</v>
-      </c>
-      <c r="L582" s="22">
+      <c r="AH583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="5" customFormat="1">
+      <c r="A584" s="5">
+        <v>583</v>
+      </c>
+      <c r="B584" s="5">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="5">
+        <v>0</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J584" s="5" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L584" s="5">
         <v>-31</v>
       </c>
-      <c r="M582" s="22">
-        <v>0</v>
-      </c>
-      <c r="N582" s="22">
-        <v>0</v>
-      </c>
-      <c r="O582" s="22" t="s">
+      <c r="M584" s="5">
+        <v>0</v>
+      </c>
+      <c r="N584" s="5">
+        <v>0</v>
+      </c>
+      <c r="O584" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P582" s="22">
-        <v>19800</v>
-      </c>
-      <c r="Q582" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R582" s="71" t="s">
-        <v>2078</v>
-      </c>
-      <c r="W582" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X582" s="22">
+      <c r="P584" s="5">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R584" s="70" t="s">
+        <v>2079</v>
+      </c>
+      <c r="W584" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X584" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y582" s="22">
+      <c r="Y584" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z582" s="22">
+      <c r="Z584" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM582" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:39" s="22" customFormat="1">
-      <c r="A583" s="22">
-        <v>582</v>
-      </c>
-      <c r="B583" s="22">
-        <v>10499</v>
-      </c>
-      <c r="F583" s="22">
-        <v>1</v>
-      </c>
-      <c r="G583" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I583" s="22" t="s">
-        <v>2071</v>
-      </c>
-      <c r="J583" s="22" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L583" s="22">
+      <c r="AH584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="5" customFormat="1">
+      <c r="A585" s="5">
+        <v>584</v>
+      </c>
+      <c r="B585" s="5">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="5">
+        <v>0</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I585" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J585" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L585" s="5">
         <v>-31</v>
       </c>
-      <c r="M583" s="22">
-        <v>0</v>
-      </c>
-      <c r="N583" s="22">
-        <v>0</v>
-      </c>
-      <c r="O583" s="22" t="s">
+      <c r="M585" s="5">
+        <v>0</v>
+      </c>
+      <c r="N585" s="5">
+        <v>0</v>
+      </c>
+      <c r="O585" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P583" s="22">
-        <v>9800</v>
-      </c>
-      <c r="Q583" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R583" s="71" t="s">
-        <v>2079</v>
-      </c>
-      <c r="W583" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X583" s="22">
+      <c r="P585" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R585" s="70" t="s">
+        <v>2080</v>
+      </c>
+      <c r="W585" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X585" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y583" s="22">
+      <c r="Y585" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z583" s="22">
+      <c r="Z585" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM583" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:39" s="22" customFormat="1">
-      <c r="A584" s="22">
-        <v>583</v>
-      </c>
-      <c r="B584" s="22">
-        <v>10500</v>
-      </c>
-      <c r="F584" s="22">
-        <v>1</v>
-      </c>
-      <c r="G584" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I584" s="22" t="s">
-        <v>2072</v>
-      </c>
-      <c r="J584" s="22" t="s">
-        <v>2063</v>
-      </c>
-      <c r="L584" s="22">
+      <c r="AH585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="5" customFormat="1">
+      <c r="A586" s="5">
+        <v>585</v>
+      </c>
+      <c r="B586" s="5">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="5">
+        <v>0</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I586" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J586" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="L586" s="5">
         <v>-31</v>
       </c>
-      <c r="M584" s="22">
-        <v>0</v>
-      </c>
-      <c r="N584" s="22">
-        <v>0</v>
-      </c>
-      <c r="O584" s="22" t="s">
+      <c r="M586" s="5">
+        <v>0</v>
+      </c>
+      <c r="N586" s="5">
+        <v>0</v>
+      </c>
+      <c r="O586" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="P584" s="22">
-        <v>4800</v>
-      </c>
-      <c r="Q584" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R584" s="71" t="s">
-        <v>2080</v>
-      </c>
-      <c r="W584" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X584" s="22">
+      <c r="P586" s="5">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="R586" s="70" t="s">
+        <v>2081</v>
+      </c>
+      <c r="W586" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="X586" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y584" s="22">
+      <c r="Y586" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z584" s="22">
+      <c r="Z586" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM584" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:39" s="22" customFormat="1">
-      <c r="A585" s="22">
-        <v>584</v>
-      </c>
-      <c r="B585" s="22">
-        <v>10501</v>
-      </c>
-      <c r="F585" s="22">
-        <v>1</v>
-      </c>
-      <c r="G585" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I585" s="22" t="s">
-        <v>2073</v>
-      </c>
-      <c r="J585" s="22" t="s">
-        <v>2064</v>
-      </c>
-      <c r="L585" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M585" s="22">
-        <v>0</v>
-      </c>
-      <c r="N585" s="22">
-        <v>0</v>
-      </c>
-      <c r="O585" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P585" s="22">
-        <v>2000</v>
-      </c>
-      <c r="Q585" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R585" s="71" t="s">
-        <v>2081</v>
-      </c>
-      <c r="W585" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X585" s="22">
-        <v>99999999</v>
-      </c>
-      <c r="Y585" s="22">
-        <v>1615852800</v>
-      </c>
-      <c r="Z585" s="22">
-        <v>1616428799</v>
-      </c>
-      <c r="AH585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM585" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:39" s="22" customFormat="1">
-      <c r="A586" s="22">
-        <v>585</v>
-      </c>
-      <c r="B586" s="22">
-        <v>10502</v>
-      </c>
-      <c r="F586" s="22">
-        <v>1</v>
-      </c>
-      <c r="G586" s="22" t="s">
-        <v>2059</v>
-      </c>
-      <c r="I586" s="22" t="s">
-        <v>2074</v>
-      </c>
-      <c r="J586" s="22" t="s">
-        <v>2065</v>
-      </c>
-      <c r="L586" s="22">
-        <v>-31</v>
-      </c>
-      <c r="M586" s="22">
-        <v>0</v>
-      </c>
-      <c r="N586" s="22">
-        <v>0</v>
-      </c>
-      <c r="O586" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P586" s="22">
-        <v>600</v>
-      </c>
-      <c r="Q586" s="22" t="s">
-        <v>2076</v>
-      </c>
-      <c r="R586" s="71" t="s">
-        <v>2082</v>
-      </c>
-      <c r="W586" s="22" t="s">
-        <v>2067</v>
-      </c>
-      <c r="X586" s="22">
-        <v>99999999</v>
-      </c>
-      <c r="Y586" s="22">
-        <v>1615852800</v>
-      </c>
-      <c r="Z586" s="22">
-        <v>1616428799</v>
-      </c>
-      <c r="AH586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM586" s="22">
+      <c r="AH586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="5">
         <v>1</v>
       </c>
     </row>
@@ -53579,7 +53519,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -53943,7 +53883,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C71" s="64">
         <v>1</v>
@@ -53957,7 +53897,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C72" s="64">
         <v>1</v>
@@ -53971,7 +53911,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C73" s="64">
         <v>1</v>
